--- a/name.xlsx
+++ b/name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cliff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cliff/2020_Retina/NAS_Retina/08_Learning/raw_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B5EC4-7A71-5E45-B8C8-715A3E510697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE7563-D617-D849-8159-03AE617272E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="960" windowWidth="27220" windowHeight="16540" xr2:uid="{5E12EB78-DA60-C546-9233-75D63581768D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>HKU</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>BU</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9B9113-0D5D-3A42-86D1-6F9A860A57B0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -438,6 +444,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
